--- a/data/georgia_census/samegrelo/chxorowyu/population_total.xlsx
+++ b/data/georgia_census/samegrelo/chxorowyu/population_total.xlsx
@@ -1353,13 +1353,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDDB847A-8840-4F24-B993-12F8B2E1E4E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E8A89DE-1A70-4693-A95B-77F8CF907581}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDBE801-A1C1-444A-9561-8353C0319A32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC9EC3F-0468-4A0A-A6A5-C17356BDCC78}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ADB1EEE-ABBC-4BE1-ABB7-53AE7F6569D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28350302-C736-4B10-A3F1-C616FCFED1A4}"/>
 </file>